--- a/OriginTable/EffectType.xlsx
+++ b/OriginTable/EffectType.xlsx
@@ -7,16 +7,14 @@
     <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="EffectType" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>TypeID</t>
   </si>
@@ -24,7 +22,16 @@
     <t>Const_string</t>
   </si>
   <si>
-    <t>##备注</t>
+    <t>##Notes</t>
+  </si>
+  <si>
+    <t>效果类型ID</t>
+  </si>
+  <si>
+    <t>常量名</t>
+  </si>
+  <si>
+    <t>备注</t>
   </si>
   <si>
     <t>int</t>
@@ -677,7 +684,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -687,20 +694,11 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1013,13 +1011,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="6" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="7" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="12.25" customWidth="1"/>
     <col min="2" max="2" width="32.875" customWidth="1"/>
@@ -1030,93 +1028,70 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="4" t="s">
+    <row r="2" ht="15" spans="1:3">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3"/>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="6">
-        <v>1</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="7" t="s">
+      <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="B3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="6">
+      <c r="A4" s="4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="4">
         <v>2</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="6"/>
-      <c r="B5" s="7"/>
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="6"/>
-      <c r="B6" s="7"/>
+      <c r="A6" s="4"/>
+      <c r="B6" s="1"/>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="6"/>
-      <c r="B7" s="7"/>
+      <c r="A7" s="4"/>
+      <c r="B7" s="1"/>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="4"/>
+      <c r="B8" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
 </file>
--- a/OriginTable/EffectType.xlsx
+++ b/OriginTable/EffectType.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="EffectType" sheetId="1" r:id="rId1"/>
@@ -1014,7 +1014,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="7" outlineLevelCol="2"/>

--- a/OriginTable/EffectType.xlsx
+++ b/OriginTable/EffectType.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="EffectType" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="75">
   <si>
     <t>TypeID</t>
   </si>
@@ -50,6 +50,198 @@
   </si>
   <si>
     <t>警戒度改变（para1）</t>
+  </si>
+  <si>
+    <t>State_Dream</t>
+  </si>
+  <si>
+    <t>持有状态（para1）时，安抚值不会在回合结束时消失</t>
+  </si>
+  <si>
+    <t>State_Mania</t>
+  </si>
+  <si>
+    <t>持有状态（para1）时，(para2）改变值绝对值加上当回合骰子点数</t>
+  </si>
+  <si>
+    <t>PeaceValue_Change</t>
+  </si>
+  <si>
+    <t>安抚值改变（para1）</t>
+  </si>
+  <si>
+    <t>DiceCard_SanChange</t>
+  </si>
+  <si>
+    <t>骰位槽中每有一张卡牌（para1），拥有该效果的卡牌造成的san值点数（绝对值）改变下降（para2）</t>
+  </si>
+  <si>
+    <t>DiceCard_PeaceValueChange</t>
+  </si>
+  <si>
+    <t>骰位槽中每有一张卡牌（para1），拥有该效果的卡牌产生的安抚值点数（绝对值）改变下降（para2）</t>
+  </si>
+  <si>
+    <t>Create_State</t>
+  </si>
+  <si>
+    <t>让猫咪产生（para1）*骰子点数的状态（para2）层数</t>
+  </si>
+  <si>
+    <t>DiceCard_StateChange</t>
+  </si>
+  <si>
+    <t>骰位槽中每有一张卡牌（para1），拥有该效果的卡牌产生的状态（para2）层数改变（para3）</t>
+  </si>
+  <si>
+    <t>DiceCard_StateDown</t>
+  </si>
+  <si>
+    <t>DiceCard_Count_StateCreate</t>
+  </si>
+  <si>
+    <t>骰位槽中若存在（para1）张以上卡牌（para2）,则让猫咪产生卡牌（para2）张数的*骰子点数层的状态（para3）</t>
+  </si>
+  <si>
+    <t>San_MultipleChange</t>
+  </si>
+  <si>
+    <t>san值改变（para1）次，每次改变（para2）点</t>
+  </si>
+  <si>
+    <t>DicePos_State</t>
+  </si>
+  <si>
+    <t>该卡牌在手中时，猫咪每有（para1）层（para2）状态，该卡片的骰位降低（para3）</t>
+  </si>
+  <si>
+    <t>San_Dice_MultipleChange</t>
+  </si>
+  <si>
+    <t>san值改变骰子点数次，每次改变（para1）点</t>
+  </si>
+  <si>
+    <t>DiceLess_State</t>
+  </si>
+  <si>
+    <t>若骰子点数小于猫咪状态（para1）层数，该状态+骰子点数层</t>
+  </si>
+  <si>
+    <t>DiceMore_State_SanChange</t>
+  </si>
+  <si>
+    <t>若骰子点数大于猫咪状态（para1）层数，san值改变（para2）*骰子点数次，每次改变（para3）</t>
+  </si>
+  <si>
+    <t>CardIn_StateDown_Draw</t>
+  </si>
+  <si>
+    <t>该卡牌放入骰子槽时，去除猫咪最多（para1）层状态（para2），抽取下降层数的卡牌</t>
+  </si>
+  <si>
+    <t>CardOut_Forbidden</t>
+  </si>
+  <si>
+    <t>卡牌放入骰子槽后无法被撤出</t>
+  </si>
+  <si>
+    <t>DiceSpace_Down</t>
+  </si>
+  <si>
+    <t>接下来（para1）*骰子点数回合内，去除（para2）个骰子槽位。（骰子槽位降低及减少一个可用槽，摇骰子时也不计入，且最多降低至1）</t>
+  </si>
+  <si>
+    <t>CardIn_Draw_DiceSpaceCount</t>
+  </si>
+  <si>
+    <t>放入骰子槽时，抽取（（para1）-可用骰子槽位数量）的卡牌</t>
+  </si>
+  <si>
+    <t>CradPick_DicePosDown_DiceSpace</t>
+  </si>
+  <si>
+    <t>玩家指定一张手牌，降低其骰位，降低数值为当前不可用骰子槽数量</t>
+  </si>
+  <si>
+    <t>DiceSpace_None_SanChange</t>
+  </si>
+  <si>
+    <t>若生效时没有不可用骰子槽，san值改变（para1）</t>
+  </si>
+  <si>
+    <t>DicePos_NextTurn_All</t>
+  </si>
+  <si>
+    <t>所有卡牌在下回合骰位变为（para1）</t>
+  </si>
+  <si>
+    <t>DiceSpace_SanChange</t>
+  </si>
+  <si>
+    <t>每有一个不可用骰子槽，san值改变（para1）</t>
+  </si>
+  <si>
+    <t>DiceSpace_AlertChange</t>
+  </si>
+  <si>
+    <t>每有一个可用骰子槽，安抚值改变（para1）</t>
+  </si>
+  <si>
+    <t>IsPeace_SanChange</t>
+  </si>
+  <si>
+    <t>若猫咪拥有安抚值，则san值下降安抚值点数</t>
+  </si>
+  <si>
+    <t>IsPeaceNone_AlertChange</t>
+  </si>
+  <si>
+    <t>若猫咪没有安抚值，则让其警戒度降低骰子点数数值*（para1）</t>
+  </si>
+  <si>
+    <t>State_PeaceValueChange</t>
+  </si>
+  <si>
+    <t>增加状态（para1）层数的安抚值</t>
+  </si>
+  <si>
+    <t>Card_Announce</t>
+  </si>
+  <si>
+    <t>放入骰位槽后，宣言一个骰子点数（出现界面显示6个不同点数骰子，让玩家选择其中1个），记录在该卡牌上</t>
+  </si>
+  <si>
+    <t>IsAnnounce_SanChange</t>
+  </si>
+  <si>
+    <t>生效时骰子点数若与该卡牌上宣言点数相同，san值改变（para1）</t>
+  </si>
+  <si>
+    <t>CardIn_PeaceValueChange</t>
+  </si>
+  <si>
+    <t>放入骰子槽时，安抚值改变（para1）</t>
+  </si>
+  <si>
+    <t>CardIn_DiceFreeze</t>
+  </si>
+  <si>
+    <t>放入骰子槽时，接下来（para1）回合内，骰子点数将固定为该值</t>
+  </si>
+  <si>
+    <t>CardIn_DicePosChange</t>
+  </si>
+  <si>
+    <t>放入骰子槽时，该卡牌骰位改变（para1）</t>
+  </si>
+  <si>
+    <t>BetWithCat</t>
+  </si>
+  <si>
+    <t>这张卡生效后，和猫各摇1次骰子
+①若猫的骰子点数更大，则随机销毁你的一张卡牌
+②若你的骰子点数更大，则san值-（para1）*骰子点数值
+③若骰子点数相同，则重新各摇1次骰子</t>
   </si>
 </sst>
 </file>
@@ -1011,13 +1203,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="7" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="12.25" customWidth="1"/>
     <col min="2" max="2" width="32.875" customWidth="1"/>
@@ -1077,18 +1269,359 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="4"/>
-      <c r="B6" s="1"/>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="4"/>
-      <c r="B7" s="1"/>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="4"/>
-      <c r="B8" s="1"/>
-    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="4">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="4">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="4">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="4">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="4">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="4">
+        <v>8</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="4">
+        <v>9</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="4">
+        <v>10</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="4">
+        <v>11</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="4">
+        <v>12</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="4">
+        <v>13</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="4">
+        <v>14</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="4">
+        <v>15</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="4">
+        <v>16</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="4">
+        <v>17</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="4">
+        <v>18</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="4">
+        <v>19</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="4">
+        <v>20</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="4">
+        <v>21</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="4">
+        <v>22</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="4">
+        <v>23</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="4">
+        <v>24</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="4">
+        <v>25</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="4">
+        <v>26</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="4">
+        <v>27</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="4">
+        <v>28</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="4">
+        <v>29</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="4">
+        <v>30</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="4">
+        <v>31</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="4">
+        <v>32</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="4">
+        <v>33</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="4">
+        <v>34</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="39" ht="13.5"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/OriginTable/EffectType.xlsx
+++ b/OriginTable/EffectType.xlsx
@@ -1203,10 +1203,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C39"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="2"/>
@@ -1621,7 +1621,6 @@
         <v>74</v>
       </c>
     </row>
-    <row r="39" ht="13.5"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/OriginTable/EffectType.xlsx
+++ b/OriginTable/EffectType.xlsx
@@ -9,12 +9,15 @@
   <sheets>
     <sheet name="EffectType" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">EffectType!$D$1:$D$37</definedName>
+  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="77">
   <si>
     <t>TypeID</t>
   </si>
@@ -25,6 +28,9 @@
     <t>##Notes</t>
   </si>
   <si>
+    <t>##IsAble</t>
+  </si>
+  <si>
     <t>效果类型ID</t>
   </si>
   <si>
@@ -32,6 +38,9 @@
   </si>
   <si>
     <t>备注</t>
+  </si>
+  <si>
+    <t>是否可用</t>
   </si>
   <si>
     <t>int</t>
@@ -1203,20 +1212,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="12.25" customWidth="1"/>
-    <col min="2" max="2" width="32.875" customWidth="1"/>
-    <col min="3" max="3" width="19.75" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.125" customWidth="1"/>
+    <col min="2" max="2" width="35.625" customWidth="1"/>
+    <col min="3" max="3" width="77.2083333333333" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:3">
+    <row r="1" ht="15" spans="1:4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1226,47 +1235,64 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" ht="15" spans="1:3">
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" ht="15" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="2"/>
-    </row>
-    <row r="4" spans="1:3">
+        <v>9</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="4">
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>11</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="4">
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1274,10 +1300,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1285,54 +1311,66 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="4">
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>19</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="4">
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>21</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="4">
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>23</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="4">
         <v>8</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1340,10 +1378,10 @@
         <v>9</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1351,10 +1389,10 @@
         <v>10</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1362,10 +1400,10 @@
         <v>11</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1373,10 +1411,10 @@
         <v>12</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1384,10 +1422,10 @@
         <v>13</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1395,10 +1433,10 @@
         <v>14</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1406,10 +1444,10 @@
         <v>15</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1417,10 +1455,10 @@
         <v>16</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1428,21 +1466,24 @@
         <v>17</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="4">
         <v>18</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1450,10 +1491,10 @@
         <v>19</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1461,10 +1502,10 @@
         <v>20</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1472,10 +1513,10 @@
         <v>21</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1483,10 +1524,10 @@
         <v>22</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1494,10 +1535,10 @@
         <v>23</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1505,10 +1546,10 @@
         <v>24</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1516,10 +1557,10 @@
         <v>25</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1527,10 +1568,10 @@
         <v>26</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1538,10 +1579,10 @@
         <v>27</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1549,10 +1590,10 @@
         <v>28</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1560,10 +1601,10 @@
         <v>29</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1571,10 +1612,10 @@
         <v>30</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1582,10 +1623,10 @@
         <v>31</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1593,10 +1634,10 @@
         <v>32</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1604,10 +1645,10 @@
         <v>33</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1615,13 +1656,16 @@
         <v>34</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="D1:D37">
+    <extLst/>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/OriginTable/EffectType.xlsx
+++ b/OriginTable/EffectType.xlsx
@@ -1215,7 +1215,7 @@
   <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="3"/>
